--- a/KTH/DA250XSebastianWillenbrink.xlsx
+++ b/KTH/DA250XSebastianWillenbrink.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t xml:space="preserve">Student:</t>
   </si>
@@ -220,6 +220,9 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">I think my presentattion was understandable without missing any important details. It was perhaps a bit shorter than it could have been as I thought the time limit was 20 minutes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The presentation is clear, precise, tailored to the audience and respects the agreed-on time limit. Questions and comments from the opponent and the audience are answered well.</t>
   </si>
   <si>
@@ -247,34 +250,7 @@
     <t xml:space="preserve">Specification</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">No fixed specification has been written. Instead, a research journal has been kept updated during the thesis. It contains the insights and plans and how they evolved over time. It can be found at: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://willenbrink.github.io/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> . Note that it was mostly intended as personal notes and as such the later notes may be a bit hard to understand.</t>
-    </r>
+    <t xml:space="preserve">No fixed specification has been written. Instead, a research journal has been kept updated during the thesis. It contains the insights and plans and how they evolved over time. It can be found at: https://willenbrink.github.io/ . Note that it was mostly intended as personal notes and as such the later notes may be a bit hard to understand.</t>
   </si>
   <si>
     <t xml:space="preserve">A realistic and thorough specification has been developed by the student. The student understands the task and the environment where it will be performed well.</t>
@@ -540,7 +516,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -711,6 +687,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -977,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.16796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,9 +1397,11 @@
       <c r="C35" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="E35" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="26"/>
@@ -1429,14 +1411,14 @@
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="26"/>
@@ -1446,14 +1428,14 @@
     <row r="37" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="26"/>
@@ -1463,14 +1445,14 @@
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="38"/>
       <c r="B38" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="26"/>
@@ -1490,76 +1472,76 @@
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>75</v>
+      <c r="D40" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
       <c r="B41" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
       <c r="B42" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -1569,23 +1551,23 @@
       <c r="A44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="43"/>
+      <c r="A45" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="44"/>
       <c r="D45" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="44" t="str">
+      <c r="B46" s="45" t="str">
         <f aca="false">IF(OR(C26="F",C27="F"),"F", IF(OR(C26="-",C27="-",C43="-"),"-",IF(OR(C26="",C27=""),"","P")))</f>
         <v>-</v>
       </c>
-      <c r="D46" s="44" t="str">
+      <c r="D46" s="45" t="str">
         <f aca="false">IF(OR(B46="F",B47="F",B48="F",B49="F",B50="F",B51="F",B52="F",B53="F"),"F", IF(OR(B46="-",B47="-",B48="-",B49="-",B50="-",B51="-",B52="-",B53="-"),"-",IF(OR(B46="",B47="",B48="",B49="",B50="",B51="",B52="",B53=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1594,11 +1576,11 @@
       <c r="A47" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B47" s="44" t="str">
+      <c r="B47" s="45" t="str">
         <f aca="false">IF(OR(C26="F",C30="F"),"F", IF(OR(C26="-",C30="-"),"-",IF(OR(C26="",C30=""),"","P")))</f>
         <v>-</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
@@ -1606,7 +1588,7 @@
       <c r="A48" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="45" t="str">
         <f aca="false">IF(OR(C25="F"),"F", IF(OR(C25="-"),"-",IF(OR(C25=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1615,7 +1597,7 @@
       <c r="A49" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="44" t="str">
+      <c r="B49" s="45" t="str">
         <f aca="false">IF(OR(C27="F",C29="F",C40="F",C41="F"),"F", IF(OR(C27="-",C29="-",C40="-",C41="-"),"-",IF(OR(C27="",C29="",C40="",C41=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1624,7 +1606,7 @@
       <c r="A50" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B50" s="44" t="str">
+      <c r="B50" s="45" t="str">
         <f aca="false">IF(OR(C29="F",C31="F"),"F", IF(OR(C29="-",C31="-"),"-",IF(OR(C29="",C31=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1633,7 +1615,7 @@
       <c r="A51" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B51" s="44" t="str">
+      <c r="B51" s="45" t="str">
         <f aca="false">IF(OR(C30="F",C35="F",C36="F",C37="F",C38="F"),"F", IF(OR(C30="-",C35="-",C36="-",C37="-"),"-",IF(OR(C30="",C35="",C36="",C37=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1642,7 +1624,7 @@
       <c r="A52" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B52" s="44" t="str">
+      <c r="B52" s="45" t="str">
         <f aca="false">IF(OR(C30="F",C31="F",C32="F"),"F", IF(OR(C30="-",C31="-",C32="-"),"-",IF(OR(C30="",C31="",C32=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1651,7 +1633,7 @@
       <c r="A53" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B53" s="44" t="str">
+      <c r="B53" s="45" t="str">
         <f aca="false">IF(OR(C28="F",C43="F"),"F", IF(OR(C28="-",C43="-"),"-",IF(OR(C28="",C43=""),"","P")))</f>
         <v>-</v>
       </c>
@@ -1685,7 +1667,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D40" r:id="rId1" display="https://willenbrink.github.io/"/>
+    <hyperlink ref="D40" r:id="rId1" display="No fixed specification has been written. Instead, a research journal has been kept updated during the thesis. It contains the insights and plans and how they evolved over time. It can be found at: https://willenbrink.github.io/ . Note that it was mostly intended as personal notes and as such the later notes may be a bit hard to understand."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
